--- a/接口文档.xlsx
+++ b/接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="个人信息接口" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>个人信息接口</t>
   </si>
@@ -141,7 +141,7 @@
     <t>用户登录</t>
   </si>
   <si>
-    <t>/user/login</t>
+    <t>/login/getMessage</t>
   </si>
   <si>
     <t>｛username，password｝</t>
@@ -162,9 +162,9 @@
     <t>/ads/adadds</t>
   </si>
   <si>
-    <t>{ad_name
-ad_contect
-ad_id
+    <t>{adId
+name
+contect
 }</t>
   </si>
   <si>
@@ -181,21 +181,15 @@
     <t>/ads/increase</t>
   </si>
   <si>
-    <t>{ad_id
-ad_name
-ad_contect}</t>
+    <t>{adId
+name
+contect}</t>
   </si>
   <si>
     <t>公告删减</t>
   </si>
   <si>
     <t>/ads/adsremove</t>
-  </si>
-  <si>
-    <t>{ad_id
-ad_name
-ad_contect
-}</t>
   </si>
   <si>
     <t>1、成功删除
@@ -209,8 +203,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -227,19 +221,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,7 +236,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,57 +254,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,6 +273,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,8 +295,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,6 +328,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,6 +356,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -392,187 +386,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,6 +617,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -647,26 +670,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,37 +700,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,10 +722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,133 +734,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1261,8 +1255,8 @@
   <sheetPr/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1688,8 +1682,8 @@
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1814,7 +1808,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" ht="34" customHeight="1" spans="1:7">
+    <row r="11" ht="34.05" customHeight="1" spans="1:7">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
@@ -1829,7 +1823,7 @@
       <c r="A12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
@@ -1852,7 +1846,7 @@
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1873,7 +1867,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1882,7 +1876,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1891,7 +1885,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1900,7 +1894,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1909,7 +1903,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1918,7 +1912,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1927,7 +1921,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1936,7 +1930,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1973,7 +1967,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1989,7 +1983,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" ht="1" customHeight="1" spans="1:7">
+    <row r="2" ht="1.05" customHeight="1" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2021,7 +2015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="72" spans="1:7">
+    <row r="4" ht="57.6" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>46</v>
       </c>
@@ -2044,7 +2038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" ht="57.6" spans="1:7">
+    <row r="5" ht="43.2" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -2065,7 +2059,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" ht="72" spans="1:7">
+    <row r="6" ht="57.6" spans="1:7">
       <c r="A6" s="6" t="s">
         <v>54</v>
       </c>
@@ -2076,7 +2070,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>49</v>
@@ -2085,7 +2079,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
